--- a/data/trans_orig/MCS12_SP_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R2-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD98213-18C0-4E88-8FBD-F160717D0E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A70E124-7167-40AB-B52D-30CB4D2034FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{879BE895-6DC3-4F31-ACE8-C1B04A121485}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7603E9C4-B130-49AB-A9BE-2AB591372D28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,1216 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
   </si>
   <si>
     <t>41,2%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>Población por debajo de la mediana (53.5790) de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>48,61%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>46,2%</t>
   </si>
   <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>Población por debajo de la mediana de la puntuación del componente de salud mental (SF12) en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525844C-7544-4602-A6E0-8EEF46A2BFC1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A75B93-5F6C-4EA0-A2FA-C425D562FE79}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1807,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="D4" s="7">
-        <v>27500</v>
+        <v>263842</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1822,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>333</v>
       </c>
       <c r="I4" s="7">
-        <v>36623</v>
+        <v>328511</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1837,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>67</v>
+        <v>599</v>
       </c>
       <c r="N4" s="7">
-        <v>64123</v>
+        <v>592353</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1858,10 +1705,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="D5" s="7">
-        <v>87858</v>
+        <v>430170</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1873,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="I5" s="7">
-        <v>76132</v>
+        <v>359840</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1888,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>166</v>
+        <v>780</v>
       </c>
       <c r="N5" s="7">
-        <v>163990</v>
+        <v>790010</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1909,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1939,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1962,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>234</v>
+        <v>385</v>
       </c>
       <c r="D7" s="7">
-        <v>228684</v>
+        <v>414248</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1977,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>287</v>
+        <v>508</v>
       </c>
       <c r="I7" s="7">
-        <v>287401</v>
+        <v>546597</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1992,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>521</v>
+        <v>893</v>
       </c>
       <c r="N7" s="7">
-        <v>516084</v>
+        <v>960845</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2013,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>344</v>
+        <v>511</v>
       </c>
       <c r="D8" s="7">
-        <v>349970</v>
+        <v>547552</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2028,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>281</v>
+        <v>400</v>
       </c>
       <c r="I8" s="7">
-        <v>288195</v>
+        <v>421796</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2043,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>625</v>
+        <v>911</v>
       </c>
       <c r="N8" s="7">
-        <v>638166</v>
+        <v>969348</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2064,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2079,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2094,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2117,49 +1964,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="D10" s="7">
-        <v>412256</v>
+        <v>296472</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>382</v>
+      </c>
+      <c r="I10" s="7">
+        <v>374669</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>503</v>
-      </c>
-      <c r="I10" s="7">
-        <v>540903</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>661</v>
+      </c>
+      <c r="N10" s="7">
+        <v>671141</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>886</v>
-      </c>
-      <c r="N10" s="7">
-        <v>953159</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,49 +2015,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>513</v>
+        <v>362</v>
       </c>
       <c r="D11" s="7">
-        <v>549544</v>
+        <v>382037</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="7">
+        <v>314</v>
+      </c>
+      <c r="I11" s="7">
+        <v>309172</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>405</v>
-      </c>
-      <c r="I11" s="7">
-        <v>427490</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>676</v>
+      </c>
+      <c r="N11" s="7">
+        <v>691209</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>918</v>
-      </c>
-      <c r="N11" s="7">
-        <v>977034</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2234,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2249,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2266,55 +2113,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>274</v>
+        <v>452</v>
       </c>
       <c r="D13" s="7">
-        <v>291516</v>
+        <v>441550</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>559</v>
+      </c>
+      <c r="I13" s="7">
+        <v>581121</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>371</v>
-      </c>
-      <c r="I13" s="7">
-        <v>363487</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1011</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1022671</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>645</v>
-      </c>
-      <c r="N13" s="7">
-        <v>655003</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,49 +2170,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>367</v>
+        <v>542</v>
       </c>
       <c r="D14" s="7">
-        <v>386993</v>
+        <v>500672</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>438</v>
+      </c>
+      <c r="I14" s="7">
+        <v>457491</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>325</v>
-      </c>
-      <c r="I14" s="7">
-        <v>320354</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>980</v>
+      </c>
+      <c r="N14" s="7">
+        <v>958163</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>692</v>
-      </c>
-      <c r="N14" s="7">
-        <v>707347</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,10 +2221,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2389,10 +2236,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2404,10 +2251,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2421,55 +2268,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>440</v>
+        <v>1382</v>
       </c>
       <c r="D16" s="7">
-        <v>429482</v>
+        <v>1416113</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1782</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1830898</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>546</v>
-      </c>
-      <c r="I16" s="7">
-        <v>568217</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3164</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3247011</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>986</v>
-      </c>
-      <c r="N16" s="7">
-        <v>997699</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,49 +2325,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>554</v>
+        <v>1832</v>
       </c>
       <c r="D17" s="7">
-        <v>512740</v>
+        <v>1860430</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1515</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1548299</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>451</v>
-      </c>
-      <c r="I17" s="7">
-        <v>470395</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3347</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3408730</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1005</v>
-      </c>
-      <c r="N17" s="7">
-        <v>983135</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2544,10 +2391,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2559,10 +2406,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2575,171 +2422,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1356</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1389438</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1749</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1796632</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3105</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3186069</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1858</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1887106</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1548</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1582566</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3406</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3469671</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2752,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33577141-FDE8-4291-9B8A-7D8A69239625}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF94803-1CD6-4DB5-8FD8-BB002951E08A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2769,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="D4" s="7">
-        <v>66428</v>
+        <v>350142</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>428</v>
       </c>
       <c r="I4" s="7">
-        <v>67710</v>
+        <v>463543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>131</v>
+        <v>770</v>
       </c>
       <c r="N4" s="7">
-        <v>134138</v>
+        <v>813685</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="D5" s="7">
-        <v>49337</v>
+        <v>353327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="I5" s="7">
-        <v>44195</v>
+        <v>233507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>554</v>
       </c>
       <c r="N5" s="7">
-        <v>93532</v>
+        <v>586834</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2987,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3002,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3025,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>247</v>
+        <v>441</v>
       </c>
       <c r="D7" s="7">
-        <v>259064</v>
+        <v>487160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>336</v>
+        <v>545</v>
       </c>
       <c r="I7" s="7">
-        <v>362145</v>
+        <v>599137</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>583</v>
+        <v>986</v>
       </c>
       <c r="N7" s="7">
-        <v>621209</v>
+        <v>1086297</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>305</v>
+        <v>495</v>
       </c>
       <c r="D8" s="7">
-        <v>328640</v>
+        <v>530787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>215</v>
+        <v>395</v>
       </c>
       <c r="I8" s="7">
-        <v>223000</v>
+        <v>433047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>520</v>
+        <v>890</v>
       </c>
       <c r="N8" s="7">
-        <v>551640</v>
+        <v>963834</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3142,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3157,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3180,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>407</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>449341</v>
+        <v>344188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="I10" s="7">
-        <v>563478</v>
+        <v>460575</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>919</v>
+        <v>735</v>
       </c>
       <c r="N10" s="7">
-        <v>1012819</v>
+        <v>804763</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>529</v>
+        <v>376</v>
       </c>
       <c r="D11" s="7">
-        <v>568606</v>
+        <v>413435</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
-        <v>428</v>
+        <v>283</v>
       </c>
       <c r="I11" s="7">
-        <v>468706</v>
+        <v>316599</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
-        <v>957</v>
+        <v>659</v>
       </c>
       <c r="N11" s="7">
-        <v>1037312</v>
+        <v>730034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3297,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3312,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3329,55 +3020,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="D13" s="7">
-        <v>334634</v>
+        <v>497703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>398</v>
+        <v>643</v>
       </c>
       <c r="I13" s="7">
-        <v>431900</v>
+        <v>678068</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>702</v>
+        <v>1116</v>
       </c>
       <c r="N13" s="7">
-        <v>766534</v>
+        <v>1175771</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="D14" s="7">
-        <v>422989</v>
+        <v>450036</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="I14" s="7">
-        <v>345274</v>
+        <v>373833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="N14" s="7">
-        <v>768263</v>
+        <v>823869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,10 +3128,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3452,10 +3143,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3467,10 +3158,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3484,55 +3175,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>444</v>
+        <v>1569</v>
       </c>
       <c r="D16" s="7">
-        <v>469596</v>
+        <v>1679193</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>599</v>
+        <v>2038</v>
       </c>
       <c r="I16" s="7">
-        <v>631007</v>
+        <v>2201324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>1043</v>
+        <v>3607</v>
       </c>
       <c r="N16" s="7">
-        <v>1100603</v>
+        <v>3880516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,49 +3232,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>466</v>
+        <v>1640</v>
       </c>
       <c r="D17" s="7">
-        <v>478143</v>
+        <v>1747586</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>404</v>
+        <v>1260</v>
       </c>
       <c r="I17" s="7">
-        <v>420894</v>
+        <v>1356985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>870</v>
+        <v>2900</v>
       </c>
       <c r="N17" s="7">
-        <v>899037</v>
+        <v>3104572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3283,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3607,10 +3298,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3622,10 +3313,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3638,171 +3329,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1473</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1579063</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1905</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2056241</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3378</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3635304</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1736</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1847716</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1393</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1502068</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3129</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3349784</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3815,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE56D7DF-EC0C-45AA-ADCB-3DCEA96D27A4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DC7E43-DD74-4745-AD4C-9759B1ED3929}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3832,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3933,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>322</v>
       </c>
       <c r="D4" s="7">
-        <v>51380</v>
+        <v>328189</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>63</v>
+        <v>377</v>
       </c>
       <c r="I4" s="7">
-        <v>63389</v>
+        <v>381042</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>113</v>
+        <v>699</v>
       </c>
       <c r="N4" s="7">
-        <v>114769</v>
+        <v>709232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>63</v>
+        <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>65166</v>
+        <v>346611</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="I5" s="7">
-        <v>49971</v>
+        <v>291797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>115</v>
+        <v>619</v>
       </c>
       <c r="N5" s="7">
-        <v>115137</v>
+        <v>638407</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4050,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4065,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4088,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>262</v>
+        <v>443</v>
       </c>
       <c r="D7" s="7">
-        <v>266717</v>
+        <v>475548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="H7" s="7">
-        <v>304</v>
+        <v>528</v>
       </c>
       <c r="I7" s="7">
-        <v>307951</v>
+        <v>563684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>131</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>566</v>
+        <v>971</v>
       </c>
       <c r="N7" s="7">
-        <v>574668</v>
+        <v>1039232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>277</v>
+        <v>508</v>
       </c>
       <c r="D8" s="7">
-        <v>291537</v>
+        <v>546883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>247</v>
+        <v>449</v>
       </c>
       <c r="I8" s="7">
-        <v>251528</v>
+        <v>479229</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>524</v>
+        <v>957</v>
       </c>
       <c r="N8" s="7">
-        <v>543065</v>
+        <v>1026112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4205,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4220,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4243,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>426</v>
+        <v>295</v>
       </c>
       <c r="D10" s="7">
-        <v>456951</v>
+        <v>324207</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>512</v>
+        <v>359</v>
       </c>
       <c r="I10" s="7">
-        <v>547516</v>
+        <v>383490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>938</v>
+        <v>654</v>
       </c>
       <c r="N10" s="7">
-        <v>1004468</v>
+        <v>707697</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>525</v>
+        <v>401</v>
       </c>
       <c r="D11" s="7">
-        <v>565480</v>
+        <v>435345</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
-        <v>465</v>
+        <v>377</v>
       </c>
       <c r="I11" s="7">
-        <v>495397</v>
+        <v>401521</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>990</v>
+        <v>778</v>
       </c>
       <c r="N11" s="7">
-        <v>1060876</v>
+        <v>836866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4360,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4375,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4392,55 +3927,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>287</v>
+        <v>502</v>
       </c>
       <c r="D13" s="7">
-        <v>315614</v>
+        <v>506486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>349</v>
+        <v>565</v>
       </c>
       <c r="I13" s="7">
-        <v>372773</v>
+        <v>615640</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>636</v>
+        <v>1067</v>
       </c>
       <c r="N13" s="7">
-        <v>688387</v>
+        <v>1122126</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="D14" s="7">
-        <v>443938</v>
+        <v>431081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="I14" s="7">
-        <v>412238</v>
+        <v>428139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="N14" s="7">
-        <v>856176</v>
+        <v>859220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,10 +4035,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4515,10 +4050,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4530,10 +4065,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4547,55 +4082,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>476</v>
+        <v>1562</v>
       </c>
       <c r="D16" s="7">
-        <v>477476</v>
+        <v>1634431</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1829</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1943857</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3391</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3578287</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" s="7">
-        <v>541</v>
-      </c>
-      <c r="I16" s="7">
-        <v>589514</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1017</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1066989</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,49 +4139,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>456</v>
+        <v>1669</v>
       </c>
       <c r="D17" s="7">
-        <v>460091</v>
+        <v>1759919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>418</v>
+        <v>1509</v>
       </c>
       <c r="I17" s="7">
-        <v>454265</v>
+        <v>1600685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>874</v>
+        <v>3178</v>
       </c>
       <c r="N17" s="7">
-        <v>914357</v>
+        <v>3360605</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,10 +4190,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4670,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4685,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4701,171 +4236,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1501</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1568138</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1769</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1881144</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3270</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3449282</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1730</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1826212</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1569</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1663398</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3299</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3489610</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4878,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A9E84F-54EB-4DE6-981B-0932D8891063}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2B813-7F9A-4402-AF57-38EFF20E8580}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4895,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>312</v>
       </c>
       <c r="D4" s="7">
-        <v>37828</v>
+        <v>243583</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>112</v>
+        <v>630</v>
       </c>
       <c r="I4" s="7">
-        <v>52532</v>
+        <v>314459</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
-        <v>160</v>
+        <v>942</v>
       </c>
       <c r="N4" s="7">
-        <v>90360</v>
+        <v>558042</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>412</v>
       </c>
       <c r="D5" s="7">
-        <v>61670</v>
+        <v>386581</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>126</v>
+        <v>597</v>
       </c>
       <c r="I5" s="7">
-        <v>76170</v>
+        <v>355402</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="M5" s="7">
-        <v>194</v>
+        <v>1009</v>
       </c>
       <c r="N5" s="7">
-        <v>137840</v>
+        <v>741982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +4477,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>724</v>
       </c>
       <c r="D6" s="7">
-        <v>99498</v>
+        <v>630164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5113,10 +4492,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>238</v>
+        <v>1227</v>
       </c>
       <c r="I6" s="7">
-        <v>128702</v>
+        <v>669861</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5128,10 +4507,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>354</v>
+        <v>1951</v>
       </c>
       <c r="N6" s="7">
-        <v>228200</v>
+        <v>1300024</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5151,49 +4530,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>247</v>
+        <v>446</v>
       </c>
       <c r="D7" s="7">
-        <v>203427</v>
+        <v>391503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>484</v>
+        <v>795</v>
       </c>
       <c r="I7" s="7">
-        <v>266359</v>
+        <v>464161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
-        <v>731</v>
+        <v>1241</v>
       </c>
       <c r="N7" s="7">
-        <v>469786</v>
+        <v>855664</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>361</v>
+        <v>513</v>
       </c>
       <c r="D8" s="7">
-        <v>343293</v>
+        <v>796809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
-        <v>505</v>
+        <v>711</v>
       </c>
       <c r="I8" s="7">
-        <v>322263</v>
+        <v>488678</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>83</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>866</v>
+        <v>1224</v>
       </c>
       <c r="N8" s="7">
-        <v>665556</v>
+        <v>1285487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>608</v>
+        <v>959</v>
       </c>
       <c r="D9" s="7">
-        <v>546720</v>
+        <v>1188312</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5268,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>989</v>
+        <v>1506</v>
       </c>
       <c r="I9" s="7">
-        <v>588622</v>
+        <v>952839</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5283,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1597</v>
+        <v>2465</v>
       </c>
       <c r="N9" s="7">
-        <v>1135342</v>
+        <v>2141151</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5306,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>410</v>
+        <v>282</v>
       </c>
       <c r="D10" s="7">
-        <v>376589</v>
+        <v>284976</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>761</v>
+        <v>529</v>
       </c>
       <c r="I10" s="7">
-        <v>489009</v>
+        <v>554651</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>1171</v>
+        <v>811</v>
       </c>
       <c r="N10" s="7">
-        <v>865599</v>
+        <v>839626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>549</v>
+        <v>392</v>
       </c>
       <c r="D11" s="7">
-        <v>657780</v>
+        <v>417350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
-        <v>745</v>
+        <v>515</v>
       </c>
       <c r="I11" s="7">
-        <v>564725</v>
+        <v>376980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
-        <v>1294</v>
+        <v>907</v>
       </c>
       <c r="N11" s="7">
-        <v>1222504</v>
+        <v>794330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>959</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1034369</v>
+        <v>702326</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5423,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1506</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1053734</v>
+        <v>931631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5438,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2465</v>
+        <v>1718</v>
       </c>
       <c r="N12" s="7">
-        <v>2088103</v>
+        <v>1633956</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5455,55 +4834,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>276</v>
+        <v>480</v>
       </c>
       <c r="D13" s="7">
-        <v>290117</v>
+        <v>410482</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>512</v>
+        <v>879</v>
       </c>
       <c r="I13" s="7">
-        <v>476413</v>
+        <v>627160</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>788</v>
+        <v>1359</v>
       </c>
       <c r="N13" s="7">
-        <v>766530</v>
+        <v>1037641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>398</v>
+        <v>521</v>
       </c>
       <c r="D14" s="7">
-        <v>436213</v>
+        <v>512427</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
-        <v>532</v>
+        <v>675</v>
       </c>
       <c r="I14" s="7">
-        <v>396087</v>
+        <v>462113</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
-        <v>930</v>
+        <v>1196</v>
       </c>
       <c r="N14" s="7">
-        <v>832300</v>
+        <v>974541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,10 +4942,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7">
-        <v>726330</v>
+        <v>922909</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5578,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1554</v>
       </c>
       <c r="I15" s="7">
-        <v>872500</v>
+        <v>1089273</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5593,10 +4972,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1718</v>
+        <v>2555</v>
       </c>
       <c r="N15" s="7">
-        <v>1598830</v>
+        <v>2012182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5610,55 +4989,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>454</v>
+        <v>1520</v>
       </c>
       <c r="D16" s="7">
-        <v>412847</v>
+        <v>1330544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
-        <v>846</v>
+        <v>2833</v>
       </c>
       <c r="I16" s="7">
-        <v>614141</v>
+        <v>1960429</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
-        <v>1300</v>
+        <v>4353</v>
       </c>
       <c r="N16" s="7">
-        <v>1026988</v>
+        <v>3290973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,49 +5046,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>547</v>
+        <v>1838</v>
       </c>
       <c r="D17" s="7">
-        <v>548397</v>
+        <v>2113167</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
-        <v>708</v>
+        <v>2498</v>
       </c>
       <c r="I17" s="7">
-        <v>529873</v>
+        <v>1683174</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
-        <v>1255</v>
+        <v>4336</v>
       </c>
       <c r="N17" s="7">
-        <v>1078270</v>
+        <v>3796341</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,10 +5097,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1001</v>
+        <v>3358</v>
       </c>
       <c r="D18" s="7">
-        <v>961244</v>
+        <v>3443711</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5733,10 +5112,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1554</v>
+        <v>5331</v>
       </c>
       <c r="I18" s="7">
-        <v>1144014</v>
+        <v>3643603</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5748,10 +5127,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2555</v>
+        <v>8689</v>
       </c>
       <c r="N18" s="7">
-        <v>2105258</v>
+        <v>7087314</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5764,171 +5143,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1435</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1320809</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2715</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1898454</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4150</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3219263</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1923</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2047353</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2616</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1889118</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4539</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3936471</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3358</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3368162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5331</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3787572</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8689</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7155734</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
